--- a/test_3.xlsx
+++ b/test_3.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,6 +1064,117 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>11:35:46</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No pone tornillo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>11:35:59</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Detección de sealling mal puesto</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>11:54:10</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Cámara no detecta foam derecho</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_3.xlsx
+++ b/test_3.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,37 +401,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>11:23:05</t>
+          <t>Hora</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>WC47 NACP</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Cámara no detecta busbar</t>
+          <t>WC48 POWER 5F</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>WC49 POWER 5H</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>WV50 FILTER</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SPL</t>
         </is>
       </c>
     </row>
@@ -1170,6 +1170,413 @@
         </is>
       </c>
       <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>12:10:35</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fallo fijador tapa</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>12:10:38</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Etiquetadora</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>12:10:40</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Etiquetadora</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>12:10:43</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Traza</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>12:10:48</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Fallo cámara visión</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>12:10:50</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AOI no detecta pieza</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>12:10:52</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>AOI no detecta pieza</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>12:12:57</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>AOI no detecta pieza</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>12:13:01</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No coge placa</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>12:13:07</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Fallo etiqueta</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>12:13:10</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Cover atascado</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>-</t>
         </is>
